--- a/data/experiment_1_plastics/Frequencies_Optimization_Comparison.xlsx
+++ b/data/experiment_1_plastics/Frequencies_Optimization_Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danim\Documents\GitHub\PIC-PAPER-01\data\experiment_1_plastics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9EF9A2-8FF0-48C1-A623-2413A66F4BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386A783-3A04-46D3-A55D-86EBA91EBF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{12C5E467-0536-45F1-AC47-603A4D590BAA}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{12C5E467-0536-45F1-AC47-603A4D590BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Freq. Optimization" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="64">
   <si>
     <t>Frequencies</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>All (PFI NB)</t>
+  </si>
+  <si>
+    <t>Best Frequencies</t>
   </si>
 </sst>
 </file>
@@ -281,16 +284,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,6 +303,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,70 +652,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5E9FE-37A4-4332-8DDA-1D3BF99EC353}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="O1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>5.2760000000000001E-2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -707,10 +729,10 @@
       <c r="D2" s="2">
         <v>0.2225</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>5.2708999999999999E-2</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -719,48 +741,51 @@
       <c r="H2" s="2">
         <v>0.24970000000000001</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>6.6448999999999994E-2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="2">
         <v>0.24709999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="O2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>4.6993E-2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>0.22220000000000001</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>4.4986999999999999E-2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2">
         <v>0.24829999999999999</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>4.3583999999999998E-2</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -770,11 +795,11 @@
         <v>0.24690000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>4.3684000000000001E-2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -783,10 +808,10 @@
       <c r="D4" s="2">
         <v>0.20899999999999999</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>4.2770000000000002E-2</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -795,10 +820,10 @@
       <c r="H4" s="2">
         <v>0.22539999999999999</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>4.1787999999999999E-2</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -808,11 +833,11 @@
         <v>0.22170000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>3.7213999999999997E-2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -821,10 +846,10 @@
       <c r="D5" s="2">
         <v>0.20849999999999999</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>4.1133999999999997E-2</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -833,10 +858,10 @@
       <c r="H5" s="2">
         <v>0.2172</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>3.7280000000000001E-2</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -846,11 +871,11 @@
         <v>0.2185</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>3.6165000000000003E-2</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -859,10 +884,10 @@
       <c r="D6" s="2">
         <v>0.1231</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>3.8861E-2</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -871,10 +896,10 @@
       <c r="H6" s="2">
         <v>0.13389999999999999</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>3.7279E-2</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -884,11 +909,11 @@
         <v>0.12770000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>3.5290000000000002E-2</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -897,10 +922,10 @@
       <c r="D7" s="2">
         <v>0.1052</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>3.6110000000000003E-2</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -909,10 +934,10 @@
       <c r="H7" s="2">
         <v>0.1255</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>3.4415000000000001E-2</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -922,11 +947,11 @@
         <v>0.1265</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>3.4037999999999999E-2</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -935,10 +960,10 @@
       <c r="D8" s="2">
         <v>0.1017</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>3.6059000000000001E-2</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -947,10 +972,10 @@
       <c r="H8" s="2">
         <v>0.1231</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>3.4158000000000001E-2</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -960,11 +985,11 @@
         <v>0.1162</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>3.2722000000000001E-2</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -973,10 +998,10 @@
       <c r="D9" s="2">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>3.6033999999999997E-2</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -985,10 +1010,10 @@
       <c r="H9" s="2">
         <v>0.1207</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>3.4063000000000003E-2</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -998,11 +1023,11 @@
         <v>0.1147</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>3.2407999999999999E-2</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1011,10 +1036,10 @@
       <c r="D10" s="2">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>3.5059E-2</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1023,10 +1048,10 @@
       <c r="H10" s="2">
         <v>0.1125</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>3.3047E-2</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1036,11 +1061,11 @@
         <v>0.10630000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>3.0214000000000001E-2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1049,10 +1074,10 @@
       <c r="D11" s="2">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>3.4308999999999999E-2</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1061,10 +1086,10 @@
       <c r="H11" s="2">
         <v>0.1118</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>3.2378999999999998E-2</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1074,11 +1099,11 @@
         <v>0.1055</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>3.0037000000000001E-2</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1087,10 +1112,10 @@
       <c r="D12" s="2">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>3.4303E-2</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1099,10 +1124,10 @@
       <c r="H12" s="2">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>3.1891999999999997E-2</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1112,11 +1137,11 @@
         <v>6.4399999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>2.9811000000000001E-2</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1125,10 +1150,10 @@
       <c r="D13" s="2">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>3.3901000000000001E-2</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1137,10 +1162,10 @@
       <c r="H13" s="2">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>3.1556000000000001E-2</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1150,11 +1175,11 @@
         <v>6.0699999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>2.9510000000000002E-2</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1163,10 +1188,10 @@
       <c r="D14" s="2">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>3.2410000000000001E-2</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1175,10 +1200,10 @@
       <c r="H14" s="2">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>3.0658000000000001E-2</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1188,11 +1213,11 @@
         <v>6.0699999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>2.7557999999999999E-2</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1201,10 +1226,10 @@
       <c r="D15" s="2">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>3.0967000000000001E-2</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1213,10 +1238,10 @@
       <c r="H15" s="2">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>2.9707999999999998E-2</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1226,11 +1251,11 @@
         <v>6.0400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>2.6141000000000001E-2</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1239,10 +1264,10 @@
       <c r="D16" s="2">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>2.8187E-2</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1251,10 +1276,10 @@
       <c r="H16" s="2">
         <v>6.13E-2</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>2.8015999999999999E-2</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -1265,10 +1290,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>2.5094999999999999E-2</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1277,10 +1302,10 @@
       <c r="D17" s="2">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>2.6395999999999999E-2</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1289,10 +1314,10 @@
       <c r="H17" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <v>2.7456000000000001E-2</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1303,10 +1328,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>2.4820999999999999E-2</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1315,10 +1340,10 @@
       <c r="D18" s="2">
         <v>4.36E-2</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>2.6202E-2</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1327,10 +1352,10 @@
       <c r="H18" s="2">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>2.649E-2</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -1341,10 +1366,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>2.4437E-2</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1353,10 +1378,10 @@
       <c r="D19" s="2">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>2.5902000000000001E-2</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1365,10 +1390,10 @@
       <c r="H19" s="2">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <v>2.6485999999999999E-2</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -1379,10 +1404,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>2.2877000000000002E-2</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1391,10 +1416,10 @@
       <c r="D20" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>2.5461999999999999E-2</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1403,10 +1428,10 @@
       <c r="H20" s="2">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <v>2.5401E-2</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -1417,10 +1442,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>2.2710999999999999E-2</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1429,10 +1454,10 @@
       <c r="D21" s="2">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>2.2696000000000001E-2</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1441,10 +1466,10 @@
       <c r="H21" s="2">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="3">
         <v>2.521E-2</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -1470,11 +1495,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">

--- a/data/experiment_1_plastics/Frequencies_Optimization_Comparison.xlsx
+++ b/data/experiment_1_plastics/Frequencies_Optimization_Comparison.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danim\Documents\GitHub\PIC-PAPER-01\data\experiment_1_plastics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386A783-3A04-46D3-A55D-86EBA91EBF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD135192-F6BF-415E-8C93-C987CE8E6FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{12C5E467-0536-45F1-AC47-603A4D590BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Freq. Optimization" sheetId="1" r:id="rId1"/>
-    <sheet name="PCA" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="PCA" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="67">
   <si>
     <t>Frequencies</t>
   </si>
@@ -105,12 +128,6 @@
     <t>All - E (RF)</t>
   </si>
   <si>
-    <t>230.0 HG (mV) std deviation</t>
-  </si>
-  <si>
-    <t>310.0 HG (mV) std deviation</t>
-  </si>
-  <si>
     <t>200.0 HG (mV) mean</t>
   </si>
   <si>
@@ -138,12 +155,6 @@
     <t>All - H  (PFI NB)</t>
   </si>
   <si>
-    <t>250.0 HG (mV) std deviation</t>
-  </si>
-  <si>
-    <t>320.0 HG (mV) std deviation</t>
-  </si>
-  <si>
     <t>300.0 HG (mV) mean</t>
   </si>
   <si>
@@ -153,21 +164,9 @@
     <t>280.0 HG (mV) mean</t>
   </si>
   <si>
-    <t>210.0 HG (mV) std deviation</t>
-  </si>
-  <si>
     <t>100.0 LG (mV) mean</t>
   </si>
   <si>
-    <t>290.0 HG (mV) std deviation</t>
-  </si>
-  <si>
-    <t>200.0 HG (mV) std deviation</t>
-  </si>
-  <si>
-    <t>330.0 HG (mV) std deviation</t>
-  </si>
-  <si>
     <t>210.0 HG (mV) mean</t>
   </si>
   <si>
@@ -229,6 +228,39 @@
   </si>
   <si>
     <t>Best Frequencies</t>
+  </si>
+  <si>
+    <t>250.0 HG sd</t>
+  </si>
+  <si>
+    <t>320.0 HG sd</t>
+  </si>
+  <si>
+    <t>310.0 HG sd</t>
+  </si>
+  <si>
+    <t>230.0 HG sd</t>
+  </si>
+  <si>
+    <t>210.0 HG sd</t>
+  </si>
+  <si>
+    <t>290.0 HG sd</t>
+  </si>
+  <si>
+    <t>200.0 HG sd</t>
+  </si>
+  <si>
+    <t>330.0 HG sd</t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>WORST</t>
+  </si>
+  <si>
+    <t>PFI exp1</t>
   </si>
 </sst>
 </file>
@@ -284,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,6 +348,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5E9FE-37A4-4332-8DDA-1D3BF99EC353}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +713,7 @@
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -686,38 +724,41 @@
         <v>0</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -729,7 +770,7 @@
       <c r="D2" s="2">
         <v>0.2225</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3">
@@ -741,7 +782,7 @@
       <c r="H2" s="2">
         <v>0.24970000000000001</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3">
@@ -753,11 +794,17 @@
       <c r="L2" s="2">
         <v>0.24709999999999999</v>
       </c>
-      <c r="O2">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="W2" s="14">
+        <v>100</v>
+      </c>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14">
+        <v>220</v>
+      </c>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -794,21 +841,28 @@
       <c r="L3" s="2">
         <v>0.24690000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="W3" s="14">
+        <v>200</v>
+      </c>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+    </row>
+    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>4.3684000000000001E-2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>0.20899999999999999</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="3">
@@ -820,7 +874,7 @@
       <c r="H4" s="2">
         <v>0.22539999999999999</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="3">
@@ -832,8 +886,31 @@
       <c r="L4" s="2">
         <v>0.22170000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" cm="1">
+        <f t="array" ref="R4:R15">+_xlfn._xlws.SORT(N5:N16)</f>
+        <v>200</v>
+      </c>
+      <c r="S4" cm="1">
+        <f t="array" ref="S4:S15">+_xlfn._xlws.SORT(O5:O16)</f>
+        <v>340</v>
+      </c>
+      <c r="W4" s="14">
+        <v>210</v>
+      </c>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14">
+        <v>260</v>
+      </c>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -846,13 +923,13 @@
       <c r="D5" s="2">
         <v>0.20849999999999999</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3">
         <v>4.1133999999999997E-2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2">
@@ -864,14 +941,33 @@
       <c r="J5" s="3">
         <v>3.7280000000000001E-2</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="2">
         <v>0.2185</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>320</v>
+      </c>
+      <c r="O5">
+        <v>340</v>
+      </c>
+      <c r="R5">
+        <v>210</v>
+      </c>
+      <c r="S5">
+        <v>350</v>
+      </c>
+      <c r="W5" s="14">
+        <v>220</v>
+      </c>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -879,7 +975,7 @@
         <v>3.6165000000000003E-2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>0.1231</v>
@@ -891,7 +987,7 @@
         <v>3.8861E-2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
         <v>0.13389999999999999</v>
@@ -903,13 +999,32 @@
         <v>3.7279E-2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L6" s="2">
         <v>0.12770000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>310</v>
+      </c>
+      <c r="O6">
+        <v>350</v>
+      </c>
+      <c r="R6">
+        <v>230</v>
+      </c>
+      <c r="S6">
+        <v>370</v>
+      </c>
+      <c r="W6" s="14">
+        <v>230</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -917,7 +1032,7 @@
         <v>3.5290000000000002E-2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2">
         <v>0.1052</v>
@@ -941,13 +1056,32 @@
         <v>3.4415000000000001E-2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="L7" s="2">
         <v>0.1265</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>250</v>
+      </c>
+      <c r="O7">
+        <v>390</v>
+      </c>
+      <c r="R7">
+        <v>250</v>
+      </c>
+      <c r="S7">
+        <v>380</v>
+      </c>
+      <c r="W7" s="14">
+        <v>250</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+    </row>
+    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -955,7 +1089,7 @@
         <v>3.4037999999999999E-2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>0.1017</v>
@@ -967,7 +1101,7 @@
         <v>3.6059000000000001E-2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2">
         <v>0.1231</v>
@@ -984,8 +1118,27 @@
       <c r="L8" s="2">
         <v>0.1162</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>330</v>
+      </c>
+      <c r="O8">
+        <v>400</v>
+      </c>
+      <c r="R8">
+        <v>270</v>
+      </c>
+      <c r="S8">
+        <v>390</v>
+      </c>
+      <c r="W8" s="14">
+        <v>260</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+    </row>
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -993,7 +1146,7 @@
         <v>3.2722000000000001E-2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2">
         <v>7.6600000000000001E-2</v>
@@ -1005,7 +1158,7 @@
         <v>3.6033999999999997E-2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2">
         <v>0.1207</v>
@@ -1017,14 +1170,33 @@
         <v>3.4063000000000003E-2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>0.1147</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="N9">
+        <v>230</v>
+      </c>
+      <c r="O9">
+        <v>380</v>
+      </c>
+      <c r="R9">
+        <v>280</v>
+      </c>
+      <c r="S9">
+        <v>400</v>
+      </c>
+      <c r="W9" s="14">
+        <v>270</v>
+      </c>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+    </row>
+    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6">
@@ -1043,7 +1215,7 @@
         <v>3.5059E-2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2">
         <v>0.1125</v>
@@ -1055,13 +1227,32 @@
         <v>3.3047E-2</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2">
         <v>0.10630000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>370</v>
+      </c>
+      <c r="R10">
+        <v>290</v>
+      </c>
+      <c r="S10">
+        <v>410</v>
+      </c>
+      <c r="W10" s="14">
+        <v>280</v>
+      </c>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+    </row>
+    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1081,25 +1272,44 @@
         <v>3.4308999999999999E-2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2">
         <v>0.1118</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" s="3">
         <v>3.2378999999999998E-2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="L11" s="2">
         <v>0.1055</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>360</v>
+      </c>
+      <c r="O11">
+        <v>410</v>
+      </c>
+      <c r="R11">
+        <v>300</v>
+      </c>
+      <c r="S11">
+        <v>430</v>
+      </c>
+      <c r="W11" s="14">
+        <v>290</v>
+      </c>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+    </row>
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1317,7 @@
         <v>3.0037000000000001E-2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>6.6299999999999998E-2</v>
@@ -1136,8 +1346,27 @@
       <c r="L12" s="2">
         <v>6.4399999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>270</v>
+      </c>
+      <c r="O12">
+        <v>430</v>
+      </c>
+      <c r="R12">
+        <v>310</v>
+      </c>
+      <c r="S12">
+        <v>440</v>
+      </c>
+      <c r="W12" s="14">
+        <v>300</v>
+      </c>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+    </row>
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1374,7 @@
         <v>2.9811000000000001E-2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>6.6299999999999998E-2</v>
@@ -1157,7 +1386,7 @@
         <v>3.3901000000000001E-2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2">
         <v>6.6299999999999998E-2</v>
@@ -1169,13 +1398,32 @@
         <v>3.1556000000000001E-2</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L13" s="2">
         <v>6.0699999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>300</v>
+      </c>
+      <c r="O13">
+        <v>440</v>
+      </c>
+      <c r="R13">
+        <v>320</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>310</v>
+      </c>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+    </row>
+    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1183,7 +1431,7 @@
         <v>2.9510000000000002E-2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>6.6299999999999998E-2</v>
@@ -1195,7 +1443,7 @@
         <v>3.2410000000000001E-2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2">
         <v>6.6299999999999998E-2</v>
@@ -1207,13 +1455,29 @@
         <v>3.0658000000000001E-2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L14" s="2">
         <v>6.0699999999999997E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>280</v>
+      </c>
+      <c r="R14">
+        <v>330</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14">
+        <v>320</v>
+      </c>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+    </row>
+    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1233,7 +1497,7 @@
         <v>3.0967000000000001E-2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" s="2">
         <v>6.6299999999999998E-2</v>
@@ -1245,13 +1509,29 @@
         <v>2.9707999999999998E-2</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L15" s="2">
         <v>6.0400000000000002E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>290</v>
+      </c>
+      <c r="R15">
+        <v>360</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
+        <v>330</v>
+      </c>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+    </row>
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1259,13 +1539,13 @@
         <v>2.6141000000000001E-2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3">
         <v>2.8187E-2</v>
@@ -1288,8 +1568,18 @@
       <c r="L16" s="2">
         <v>5.9700000000000003E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>210</v>
+      </c>
+      <c r="W16" s="14">
+        <v>340</v>
+      </c>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+    </row>
+    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1297,19 +1587,19 @@
         <v>2.5094999999999999E-2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2">
         <v>4.6800000000000001E-2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="3">
         <v>2.6395999999999999E-2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H17" s="2">
         <v>4.7E-2</v>
@@ -1321,13 +1611,20 @@
         <v>2.7456000000000001E-2</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="L17" s="2">
         <v>4.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="W17" s="14">
+        <v>350</v>
+      </c>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+    </row>
+    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1335,37 +1632,44 @@
         <v>2.4820999999999999E-2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2">
         <v>4.36E-2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="3">
         <v>2.6202E-2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H18" s="2">
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" s="3">
         <v>2.649E-2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L18" s="2">
         <v>3.6700000000000003E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="W18" s="14">
+        <v>360</v>
+      </c>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+    </row>
+    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1373,7 +1677,7 @@
         <v>2.4437E-2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>4.2799999999999998E-2</v>
@@ -1385,25 +1689,32 @@
         <v>2.5902000000000001E-2</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J19" s="3">
         <v>2.6485999999999999E-2</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L19" s="2">
         <v>3.5299999999999998E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="W19" s="14">
+        <v>370</v>
+      </c>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+    </row>
+    <row r="20" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1411,37 +1722,44 @@
         <v>2.2877000000000002E-2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20" s="3">
         <v>2.5461999999999999E-2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H20" s="2">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="3">
         <v>2.5401E-2</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="L20" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="W20" s="14">
+        <v>380</v>
+      </c>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+    </row>
+    <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1449,19 +1767,19 @@
         <v>2.2710999999999999E-2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3">
         <v>2.2696000000000001E-2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H21" s="2">
         <v>3.5900000000000001E-2</v>
@@ -1473,7 +1791,827 @@
         <v>2.521E-2</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="W21" s="14">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W22" s="14">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W23" s="14">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W24" s="14">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W25" s="14">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W26" s="14">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W27" s="14">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W28" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W29" s="14">
+        <v>510</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W29">
+    <sortCondition ref="W29"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5FC91-2BB6-4554-AA22-1033656EEE14}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>380</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5.2760000000000001E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>250</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.2225</v>
+      </c>
+      <c r="E2" s="11">
+        <v>380</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5.2708999999999999E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>250</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="I2" s="11">
+        <v>380</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6.6448999999999994E-2</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="2">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="P2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6">
+        <v>4.6993E-2</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="2">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>440</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.4986999999999999E-2</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="2">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>440</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4.3583999999999998E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>250</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="P3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>340</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4.3684000000000001E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>330</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E4" s="11">
+        <v>340</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.2770000000000002E-2</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="I4" s="11">
+        <v>340</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.1787999999999999E-2</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <v>0.22170000000000001</v>
+      </c>
+      <c r="P4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>350</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.7213999999999997E-2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="E5" s="11">
+        <v>330</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.1133999999999997E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>330</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.2172</v>
+      </c>
+      <c r="I5" s="3">
+        <v>370</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.7280000000000001E-2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>330</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.2185</v>
+      </c>
+      <c r="P5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>430</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3.6165000000000003E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1231</v>
+      </c>
+      <c r="E6" s="3">
+        <v>370</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.8861E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>250</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="3">
+        <v>3.7279E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>250</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="P6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6">
+        <v>3.5290000000000002E-2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>0.1052</v>
+      </c>
+      <c r="E7" s="3">
+        <v>400</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.6110000000000003E-2</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.1255</v>
+      </c>
+      <c r="I7" s="3">
+        <v>350</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.4415000000000001E-2</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>0.1265</v>
+      </c>
+      <c r="P7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>460</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3.4037999999999999E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>250</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1017</v>
+      </c>
+      <c r="E8" s="3">
+        <v>430</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.6059000000000001E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.1231</v>
+      </c>
+      <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.4158000000000001E-2</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6">
+        <v>3.2722000000000001E-2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>3.6033999999999997E-2</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>0.1207</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>3.4063000000000003E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>200</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.1147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>330</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3.2407999999999999E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>360</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3">
+        <v>3.5059E-2</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.1125</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>3.3047E-2</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <v>0.10630000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>400</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3.0214000000000001E-2</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>410</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.4308999999999999E-2</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>0.1118</v>
+      </c>
+      <c r="I11" s="3">
+        <v>420</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.2378999999999998E-2</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>370</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.0037000000000001E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>280</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>3.4303E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>360</v>
+      </c>
+      <c r="H12" s="2">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>430</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.1891999999999997E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>360</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6.4399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>590</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2.9811000000000001E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>270</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>350</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3.3901000000000001E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>300</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>3.1556000000000001E-2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>270</v>
+      </c>
+      <c r="L13" s="2">
+        <v>6.0699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>410</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.9510000000000002E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>300</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>3.2410000000000001E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>270</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>460</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3.0658000000000001E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>300</v>
+      </c>
+      <c r="L14" s="2">
+        <v>6.0699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>540</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.7557999999999999E-2</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>590</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3.0967000000000001E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>280</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>590</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.9707999999999998E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>280</v>
+      </c>
+      <c r="L15" s="2">
+        <v>6.0400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>440</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2.6141000000000001E-2</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>390</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.8187E-2</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>6.13E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>540</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2.8015999999999999E-2</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <v>5.9700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6">
+        <v>2.5094999999999999E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>210</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>480</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.6395999999999999E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>210</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>410</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2.7456000000000001E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>210</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>360</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2.4820999999999999E-2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>4.36E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>450</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.6202E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>390</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.649E-2</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <v>3.6700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>550</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2.4437E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>460</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.5902000000000001E-2</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>500</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.6485999999999999E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>250</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2.2877000000000002E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>200</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>420</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.5461999999999999E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="I20" s="11">
+        <v>330</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2.5401E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>490</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2.2710999999999999E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>210</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>510</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2.2696000000000001E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>330</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>360</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2.521E-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>210</v>
       </c>
       <c r="L21" s="2">
         <v>3.1800000000000002E-2</v>
@@ -1485,12 +2623,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFFBCE7-0964-48C0-A2C4-FCAFA7B434BC}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,19 +2642,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1564,7 +2702,7 @@
         <v>0.32024799999999998</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5">
         <v>-0.25270799999999999</v>
@@ -1592,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>0.19251799999999999</v>
@@ -1609,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
         <v>0.15581400000000001</v>
@@ -1626,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5">
         <v>0.15151899999999999</v>
@@ -1660,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
         <v>6.0953E-2</v>
@@ -1677,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5">
         <v>1.6903000000000001E-2</v>
@@ -1711,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6">
         <v>0.12725700000000001</v>
@@ -1728,7 +2866,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6">
         <v>0.124585</v>
@@ -1745,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6">
         <v>0.121087</v>
@@ -1779,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6">
         <v>4.8620999999999998E-2</v>
@@ -1796,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6">
         <v>3.3430000000000001E-2</v>
@@ -1836,7 +2974,7 @@
         <v>1.4829E-2</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="6">
         <v>-3.2278000000000001E-2</v>
@@ -1847,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6">
         <v>1.2177E-2</v>
@@ -1870,7 +3008,7 @@
         <v>0.62166699999999997</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22" s="5">
         <v>-0.22884699999999999</v>
@@ -1887,7 +3025,7 @@
         <v>0.568214</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E23" s="5">
         <v>-0.22254399999999999</v>
@@ -1904,7 +3042,7 @@
         <v>0.137713</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5">
         <v>-0.184474</v>
@@ -1921,7 +3059,7 @@
         <v>0.13170200000000001</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E25" s="5">
         <v>-8.9190000000000005E-2</v>
@@ -1949,13 +3087,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="5">
         <v>0.121679</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E27" s="5">
         <v>-1.5187000000000001E-2</v>
@@ -1966,13 +3104,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="5">
         <v>9.7887000000000002E-2</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5">
         <v>-1.1587E-2</v>
@@ -1983,13 +3121,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="5">
         <v>8.8217000000000004E-2</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E29" s="5">
         <v>-9.6259999999999991E-3</v>
@@ -2006,7 +3144,7 @@
         <v>8.1172999999999995E-2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E30" s="5">
         <v>-9.2329999999999999E-3</v>
@@ -2034,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C32" s="6">
         <v>0.43107499999999999</v>
@@ -2051,7 +3189,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6">
         <v>0.41909400000000002</v>
@@ -2068,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="6">
         <v>0.36267500000000003</v>
@@ -2119,7 +3257,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C37" s="6">
         <v>0.168181</v>
@@ -2142,7 +3280,7 @@
         <v>0.113415</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E38" s="6">
         <v>-2.6342000000000001E-2</v>
@@ -2153,13 +3291,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="6">
         <v>0.100882</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E39" s="6">
         <v>-2.2429999999999999E-2</v>
@@ -2170,13 +3308,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="6">
         <v>7.5950000000000004E-2</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E40" s="6">
         <v>-2.0804E-2</v>
@@ -2187,13 +3325,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C41" s="6">
         <v>5.6745999999999998E-2</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E41" s="6">
         <v>-1.788E-2</v>
@@ -2244,7 +3382,7 @@
         <v>0.23540700000000001</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E44" s="5">
         <v>-9.1596999999999998E-2</v>
@@ -2312,7 +3450,7 @@
         <v>0.102532</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E48" s="5">
         <v>-5.1755000000000002E-2</v>
@@ -2323,13 +3461,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C49" s="5">
         <v>2.921E-2</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E49" s="5">
         <v>-5.1429000000000002E-2</v>
@@ -2340,13 +3478,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C50" s="5">
         <v>3.4112999999999997E-2</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E50" s="5">
         <v>-4.9479000000000002E-2</v>
@@ -2363,7 +3501,7 @@
         <v>3.2046999999999999E-2</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E51" s="5">
         <v>-4.3576999999999998E-2</v>
